--- a/data/trans_dic/P23_8_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_8_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +667,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,25</t>
+          <t>0,0; 16,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,76</t>
+          <t>0,0; 21,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 14,25</t>
+          <t>0,0; 19,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,49</t>
+          <t>0,0; 16,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 13,54</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,95</t>
+          <t>0,0; 14,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,68</t>
+          <t>0,0; 11,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 14,72</t>
+          <t>1,32; 11,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 14,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,17</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,6</t>
+          <t>0,0; 43,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,98</t>
+          <t>0,0; 12,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,88</t>
+          <t>1,41; 12,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 16,24</t>
+          <t>0,0; 11,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 30,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 7,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 7,78</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>3,7%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,6</t>
+          <t>1,69; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,09</t>
+          <t>0,0; 8,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 13,13</t>
+          <t>5,88; 25,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,18</t>
+          <t>3,49; 19,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,12</t>
+          <t>0,97; 8,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,4</t>
+          <t>2,02; 11,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,74</t>
+          <t>1,14; 10,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 13,61</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,85</t>
+          <t>1,91; 8,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 7,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 13,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 10,53</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,43</t>
+          <t>0,0; 7,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,15</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,95</t>
+          <t>3,97; 16,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,71</t>
+          <t>4,83; 16,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,37</t>
+          <t>4,23; 16,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,04</t>
+          <t>3,05; 13,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,8</t>
+          <t>8,82; 22,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,45</t>
+          <t>3,52; 10,5</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 8,25</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 8,06</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 16,88</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 14,17</t>
+          <t>3,66; 17,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 25,45</t>
+          <t>1,72; 33,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,28</t>
+          <t>1,34; 12,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 14,46</t>
+          <t>1,52; 14,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 15,55</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 20,61</t>
+          <t>0,0; 14,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 12,66</t>
+          <t>2,48; 19,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 15,97</t>
+          <t>7,85; 30,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,51</t>
+          <t>3,28; 12,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 23,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 13,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 18,64</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 15,78</t>
+          <t>0,0; 16,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,03</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 15,95</t>
+          <t>0,0; 11,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 22,26</t>
+          <t>9,61; 37,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,14</t>
+          <t>2,22; 17,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,92</t>
+          <t>0,0; 12,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 16,93</t>
+          <t>1,72; 16,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,9</t>
+          <t>2,64; 26,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 10,86</t>
+          <t>2,44; 12,81</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 10,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 25,6</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,91</t>
+          <t>2,53; 6,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,33</t>
+          <t>1,53; 14,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,61</t>
+          <t>2,58; 8,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,09</t>
+          <t>5,2; 11,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,25</t>
+          <t>2,95; 7,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,1</t>
+          <t>3,04; 7,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,32</t>
+          <t>3,71; 8,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,18</t>
+          <t>5,73; 11,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,95</t>
+          <t>3,17; 6,26</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 9,33</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 7,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 10,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6881</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5668</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3675</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10379</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5668</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11913</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7432</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17468</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26796</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27364</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22264</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17302</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17248</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16522</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3171; 26956</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19709</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2703; 36461</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23261</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6281</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11391</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 62699</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 27448</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1780; 15815</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19127</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 83254</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1538; 19669</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2923; 30341</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10433</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18353</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15888</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8077</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10432</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8073</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5728</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18509</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26427</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21615</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2742; 23256</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10932</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7952; 34102</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6179; 34054</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2559; 21793</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4187; 24722</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2293; 20391</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20030</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8134; 36610</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4436; 26056</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13334; 44555</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9106; 43448</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16294</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21170</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16150</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12091</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30296</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25475</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16150</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14059</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46590</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13218</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9792</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7808; 32222</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10548; 36147</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7720; 29814</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5190; 23092</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18379; 47637</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14258; 42543</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7554; 28354</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6869; 26312</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30825; 68332</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13436</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14441</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6407</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9216</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4371</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3770</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7707</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23071</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17807</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18211</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14114</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32287</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5675; 27753</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2108; 41282</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1654; 15489</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2281; 21139</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15001</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13022</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2233; 17910</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10325; 40286</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8831; 33858</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5830; 49450</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7076; 28213</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17346; 52557</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>28307</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8954</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2629</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6357</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17921</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14709</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8497</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>46228</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17865</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10482</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9685</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12361; 48214</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2833; 21988</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11283</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1822; 17122</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4569; 45549</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5785; 30379</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16965</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2089; 21058</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22567; 77216</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>37425</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>37983</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35255</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>79741</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>49454</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38649</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>45851</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>85801</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>86879</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>76632</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>81105</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>165542</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22519; 59240</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>11524; 106507</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20157; 64941</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>53027; 119878</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30207; 72572</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>24802; 59049</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30264; 68438</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>60541; 123625</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>60713; 119634</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45670; 146624</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>56188; 113137</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>124886; 218968</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>